--- a/resourses/NT330.K21.ANTN_Attendant.xlsx
+++ b/resourses/NT330.K21.ANTN_Attendant.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Buổi 6</t>
+  </si>
+  <si>
+    <t>|1</t>
   </si>
 </sst>
 </file>
@@ -435,21 +438,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,6 +453,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,7 +564,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -782,18 +785,18 @@
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -803,11 +806,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -825,23 +828,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -851,11 +854,11 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -865,11 +868,11 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -930,6 +933,9 @@
       <c r="D10" s="21">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
@@ -944,6 +950,9 @@
       <c r="D11" s="21">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
@@ -958,6 +967,9 @@
       <c r="D12" s="21">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
@@ -972,6 +984,9 @@
       <c r="D13" s="21">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
@@ -986,6 +1001,9 @@
       <c r="D14" s="21">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
@@ -1000,6 +1018,9 @@
       <c r="D15" s="21">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
@@ -1014,8 +1035,11 @@
       <c r="D16" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1028,8 +1052,11 @@
       <c r="D17" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1042,8 +1069,11 @@
       <c r="D18" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1056,8 +1086,11 @@
       <c r="D19" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1070,8 +1103,11 @@
       <c r="D20" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1084,8 +1120,11 @@
       <c r="D21" s="21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -1098,8 +1137,11 @@
       <c r="D22" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -1112,8 +1154,11 @@
       <c r="D23" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -1126,8 +1171,11 @@
       <c r="D24" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -1140,8 +1188,11 @@
       <c r="D25" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -1154,8 +1205,11 @@
       <c r="D26" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -1168,8 +1222,11 @@
       <c r="D27" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -1182,8 +1239,11 @@
       <c r="D28" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -1196,8 +1256,11 @@
       <c r="D29" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1210,8 +1273,11 @@
       <c r="D30" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -1224,8 +1290,11 @@
       <c r="D31" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>23</v>
       </c>
@@ -1237,6 +1306,9 @@
       </c>
       <c r="D32" s="21">
         <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,31 +1321,31 @@
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
@@ -1288,6 +1360,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
@@ -1295,12 +1373,6 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
 </worksheet>

--- a/resourses/NT330.K21.ANTN_Attendant.xlsx
+++ b/resourses/NT330.K21.ANTN_Attendant.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Hung LE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Hung LE\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="NT330.K21.ANTN" sheetId="1" r:id="rId1"/>
@@ -438,6 +438,21 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,21 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -785,18 +785,18 @@
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -806,11 +806,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -828,23 +828,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -854,11 +854,11 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -868,11 +868,11 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -936,6 +936,9 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
@@ -953,6 +956,9 @@
       <c r="E11" t="s">
         <v>65</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
@@ -970,6 +976,9 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
@@ -987,6 +996,9 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
@@ -1004,6 +1016,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
@@ -1021,6 +1036,9 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
@@ -1038,8 +1056,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1055,8 +1076,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1072,8 +1096,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1089,8 +1116,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1106,8 +1136,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1123,8 +1156,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -1140,8 +1176,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -1157,8 +1196,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -1174,8 +1216,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -1191,8 +1236,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -1208,8 +1256,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -1225,8 +1276,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -1242,8 +1296,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -1259,8 +1316,11 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1276,8 +1336,11 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -1293,8 +1356,11 @@
       <c r="E31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>23</v>
       </c>
@@ -1308,6 +1374,9 @@
         <v>0</v>
       </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
@@ -1321,31 +1390,31 @@
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
@@ -1360,12 +1429,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:E4"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
@@ -1373,6 +1436,12 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
 </worksheet>

--- a/resourses/NT330.K21.ANTN_Attendant.xlsx
+++ b/resourses/NT330.K21.ANTN_Attendant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="NT330.K21.ANTN" sheetId="1" r:id="rId1"/>
@@ -438,21 +438,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,6 +453,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -792,11 +792,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -806,11 +806,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -828,23 +828,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -854,11 +854,11 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -868,11 +868,11 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -939,6 +939,9 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
@@ -959,6 +962,9 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
@@ -979,6 +985,9 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
@@ -999,6 +1008,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
@@ -1019,6 +1031,9 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
@@ -1039,6 +1054,9 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
@@ -1059,8 +1077,11 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1079,8 +1100,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1099,8 +1123,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1119,8 +1146,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1139,8 +1169,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1159,8 +1192,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -1179,8 +1215,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -1199,8 +1238,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -1219,8 +1261,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -1239,8 +1284,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -1259,8 +1307,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -1279,8 +1330,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -1299,8 +1353,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -1319,8 +1376,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1339,8 +1399,11 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -1359,8 +1422,11 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>23</v>
       </c>
@@ -1377,6 +1443,9 @@
         <v>1</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>1</v>
       </c>
     </row>
@@ -1390,31 +1459,31 @@
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
@@ -1429,6 +1498,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
@@ -1436,12 +1511,6 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
 </worksheet>

--- a/resourses/NT330.K21.ANTN_Attendant.xlsx
+++ b/resourses/NT330.K21.ANTN_Attendant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8295" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="NT330.K21.ANTN" sheetId="1" r:id="rId1"/>
@@ -438,6 +438,21 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,21 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -784,19 +784,19 @@
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" customWidth="1"/>
+    <col min="5" max="5" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.140625" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -806,11 +806,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -828,23 +828,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -854,11 +854,11 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -868,11 +868,11 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -942,6 +942,9 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
@@ -965,6 +968,9 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
@@ -988,6 +994,9 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
@@ -1011,6 +1020,9 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
@@ -1034,6 +1046,9 @@
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
@@ -1057,6 +1072,9 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
@@ -1080,8 +1098,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1103,8 +1124,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1126,8 +1150,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1149,8 +1176,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1172,8 +1202,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1195,8 +1228,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -1218,8 +1254,11 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -1241,8 +1280,11 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -1264,8 +1306,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -1287,8 +1332,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -1310,8 +1358,11 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -1333,8 +1384,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -1356,8 +1410,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -1379,8 +1436,11 @@
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1402,8 +1462,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -1425,8 +1488,11 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>23</v>
       </c>
@@ -1446,6 +1512,9 @@
         <v>1</v>
       </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
@@ -1459,31 +1528,31 @@
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
@@ -1498,12 +1567,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:E4"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
@@ -1511,6 +1574,12 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
 </worksheet>

--- a/resourses/NT330.K21.ANTN_Attendant.xlsx
+++ b/resourses/NT330.K21.ANTN_Attendant.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Hung LE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim Hung LE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8295" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="NT330.K21.ANTN" sheetId="1" r:id="rId1"/>
@@ -438,21 +438,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,6 +453,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -788,15 +788,16 @@
     <col min="5" max="5" width="0.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -806,11 +807,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -828,23 +829,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -854,11 +855,11 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
@@ -868,11 +869,11 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -945,6 +946,9 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
@@ -971,6 +975,9 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
@@ -997,6 +1004,9 @@
       <c r="H12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
@@ -1023,6 +1033,9 @@
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
@@ -1049,6 +1062,9 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
@@ -1075,6 +1091,9 @@
       <c r="H15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
@@ -1101,8 +1120,11 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>8</v>
       </c>
@@ -1127,8 +1149,11 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>9</v>
       </c>
@@ -1153,8 +1178,11 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>10</v>
       </c>
@@ -1179,8 +1207,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>11</v>
       </c>
@@ -1205,8 +1236,11 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>12</v>
       </c>
@@ -1231,8 +1265,11 @@
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>13</v>
       </c>
@@ -1257,8 +1294,11 @@
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>14</v>
       </c>
@@ -1283,8 +1323,11 @@
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>15</v>
       </c>
@@ -1309,8 +1352,11 @@
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>16</v>
       </c>
@@ -1335,8 +1381,11 @@
       <c r="H25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>17</v>
       </c>
@@ -1361,8 +1410,11 @@
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>18</v>
       </c>
@@ -1387,8 +1439,11 @@
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>19</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="H28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>20</v>
       </c>
@@ -1439,8 +1497,11 @@
       <c r="H29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>21</v>
       </c>
@@ -1465,8 +1526,11 @@
       <c r="H30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>22</v>
       </c>
@@ -1491,8 +1555,11 @@
       <c r="H31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>23</v>
       </c>
@@ -1515,6 +1582,9 @@
         <v>1</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
     </row>
@@ -1528,31 +1598,31 @@
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
@@ -1567,6 +1637,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
@@ -1574,12 +1650,6 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
 </worksheet>
